--- a/HT3.xlsx
+++ b/HT3.xlsx
@@ -204,6 +204,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,9 +215,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7819,6 +7819,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8139,7 +8143,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8161,7 +8165,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8193,7 +8197,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8231,7 +8235,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8261,7 +8265,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8291,7 +8295,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -8321,7 +8325,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
